--- a/bin/Release/netcoreapp3.1/RequiredFiles/ClaimNavigation.xlsx
+++ b/bin/Release/netcoreapp3.1/RequiredFiles/ClaimNavigation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin2\Documents\Visual Studio 2022\Projects\III_ProjectOne\bin\Release\netcoreapp3.1\RequiredFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin2\Documents\Visual Studio 2022\Projects\III_ProjectOne\bin\Debug\netcoreapp3.1\RequiredFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="176">
   <si>
     <t>Remarks</t>
   </si>
@@ -543,6 +543,24 @@
   </si>
   <si>
     <t>Reserve</t>
+  </si>
+  <si>
+    <t>SubrogationRadiobox</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/form/div/div[2]/div[1]/div/div[1]/div/div[2]/div/div[1]/div/div/div[3]/div/div/div/div[6]/div/div/div[2]/div[1]/div/table/tbody/tr[2]/td[1]/div/input</t>
+  </si>
+  <si>
+    <t>SubrogateUpdate</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/form/div/div[2]/div[1]/div/div[1]/div/div[2]/div/div[1]/div/div/div[3]/div/div/div/div[1]/div/div/div[2]/div[2]/div/table/tbody/tr[2]/td[9]/a</t>
+  </si>
+  <si>
+    <t>SubrogationAmtUpdate</t>
+  </si>
+  <si>
+    <t>SubrogateAmtSubmitbtn</t>
   </si>
 </sst>
 </file>
@@ -911,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2263,6 +2281,38 @@
         <v>117</v>
       </c>
     </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>170</v>
+      </c>
+      <c r="E80" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>172</v>
+      </c>
+      <c r="E81" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>174</v>
+      </c>
+      <c r="E82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>175</v>
+      </c>
+      <c r="E83" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/bin/Release/netcoreapp3.1/RequiredFiles/ClaimNavigation.xlsx
+++ b/bin/Release/netcoreapp3.1/RequiredFiles/ClaimNavigation.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="182">
   <si>
     <t>Remarks</t>
   </si>
@@ -561,6 +561,24 @@
   </si>
   <si>
     <t>SubrogateAmtSubmitbtn</t>
+  </si>
+  <si>
+    <t>SubrogateLossRadioBox</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div/form/div/div[2]/div[1]/div/div[1]/div/div[2]/div/div[1]/div/div/div[3]/div/div/div/div[6]/div/div/div[2]/div[1]/div/table/tbody/tr[4]/td[1]/div/input</t>
+  </si>
+  <si>
+    <t>SubrogateLossSubmit</t>
+  </si>
+  <si>
+    <t>SubrogateLossUpdate</t>
+  </si>
+  <si>
+    <t>SubrogateLossAmtUpdate</t>
+  </si>
+  <si>
+    <t>SubrogateLossAmtSubmit</t>
   </si>
 </sst>
 </file>
@@ -929,10 +947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2313,6 +2331,46 @@
         <v>117</v>
       </c>
     </row>
+    <row r="84" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>176</v>
+      </c>
+      <c r="E84" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>178</v>
+      </c>
+      <c r="E85" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>179</v>
+      </c>
+      <c r="E86" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="87" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>180</v>
+      </c>
+      <c r="E87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>181</v>
+      </c>
+      <c r="E88" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
